--- a/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
+++ b/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95C6B31-CABE-406C-A162-CEBB1E2A8FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BDD55F-DC0F-4FE4-BBF3-B12A55904A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="163">
   <si>
     <t>VVSS, Info Romana, 2024-2025</t>
   </si>
@@ -172,35 +172,10 @@
     <t>Un cinefil doreşte să îşi dezvolte un program pentru gestionarea filmelor din colecţia personală. Programul va permite următoarele operaţii:</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>F01.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> adăugarea unui film nou (titlu, regizor, an aparitie, actori, categorie, cuvinte cheie);</t>
-    </r>
-  </si>
-  <si>
     <t>Observații</t>
   </si>
   <si>
     <t xml:space="preserve">1. La proiectarea TCs se consideră o metodă care poate avea următoarea semnătură: </t>
-  </si>
-  <si>
-    <t>addMovie(String title, String director, int year, List&lt;String&gt; actors, String category, List&lt;String&gt; keywords): void</t>
   </si>
   <si>
     <t>2. Metoda este definită la nivelul repository, service sau ui.</t>
@@ -415,9 +390,6 @@
     <t>expected result</t>
   </si>
   <si>
-    <t>TC3_EC</t>
-  </si>
-  <si>
     <t>"M"</t>
   </si>
   <si>
@@ -629,9 +601,6 @@
     <t>Error message- no parts</t>
   </si>
   <si>
-    <t>1,3,5,7,9</t>
-  </si>
-  <si>
     <t>F01. adăugarea unui produs nou (nume, pret, stoc, min, max, partiAsoc);</t>
   </si>
   <si>
@@ -644,12 +613,6 @@
     <t>02. min=0</t>
   </si>
   <si>
-    <t>min value&lt; max value, max[0,INTMAX-1]</t>
-  </si>
-  <si>
-    <t>min value&lt; max value,min [0,INTMAX-1]</t>
-  </si>
-  <si>
     <t>04. min = INTMAX-1</t>
   </si>
   <si>
@@ -719,9 +682,6 @@
     <t>18.patAsoc=1001</t>
   </si>
   <si>
-    <t>TC1_EC</t>
-  </si>
-  <si>
     <t>part1</t>
   </si>
   <si>
@@ -731,9 +691,6 @@
     <t>produs2</t>
   </si>
   <si>
-    <t>TC2_EC</t>
-  </si>
-  <si>
     <t>1,14</t>
   </si>
   <si>
@@ -752,9 +709,6 @@
     <t>produs 5</t>
   </si>
   <si>
-    <t>Valid</t>
-  </si>
-  <si>
     <t>1,3,6,8</t>
   </si>
   <si>
@@ -764,16 +718,34 @@
     <t>produs5</t>
   </si>
   <si>
-    <t>TC4_EC</t>
-  </si>
-  <si>
-    <t>TC5_EC</t>
-  </si>
-  <si>
     <t>2, 14</t>
   </si>
   <si>
     <t>part1, part2</t>
+  </si>
+  <si>
+    <t>Schiopu Adrian</t>
+  </si>
+  <si>
+    <t>Tcaciuc Andrea Elena</t>
+  </si>
+  <si>
+    <t>Serpe Vlad</t>
+  </si>
+  <si>
+    <t>public void addProduct(String name, double price, int inStock, int min, int  max, ObservableList&lt;Part&gt; addParts){</t>
+  </si>
+  <si>
+    <t>Produs Adaugat</t>
+  </si>
+  <si>
+    <t>1,3,6,9</t>
+  </si>
+  <si>
+    <t>min [0,INTMAX-1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> max[0,INTMAX-1]</t>
   </si>
 </sst>
 </file>
@@ -1436,7 +1408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1539,11 +1511,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1560,6 +1529,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1590,33 +1583,24 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1632,26 +1616,77 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1701,82 +1736,16 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2087,7 +2056,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2100,12 +2069,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="51"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50"/>
       <c r="H1" s="42" t="s">
         <v>1</v>
       </c>
@@ -2113,11 +2082,11 @@
       <c r="J1" s="42"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="H2" s="52" t="s">
+      <c r="H2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H3" s="2"/>
@@ -2132,23 +2101,35 @@
       <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="J4" s="2">
+        <v>237</v>
+      </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="J5" s="2">
+        <v>237</v>
+      </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="28"/>
       <c r="H6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J6" s="2">
+        <v>237</v>
+      </c>
     </row>
     <row r="7" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
@@ -2200,8 +2181,8 @@
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>14</v>
+      <c r="B16" s="124" t="s">
+        <v>114</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -2214,27 +2195,27 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B18" s="40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C20" s="38" t="s">
-        <v>17</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -2251,7 +2232,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -2268,21 +2249,21 @@
     </row>
     <row r="24" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="39"/>
-      <c r="B24" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="48"/>
+      <c r="B24" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C26" s="41"/>
@@ -2305,8 +2286,8 @@
   </sheetPr>
   <dimension ref="B1:Q17"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12:N12"/>
+    <sheetView topLeftCell="B1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2323,136 +2304,136 @@
     <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.44140625" customWidth="1"/>
+    <col min="16" max="16" width="41.109375" customWidth="1"/>
     <col min="17" max="17" width="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="51"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B3" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="58"/>
+      <c r="B3" s="63" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="65"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="G5" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="60"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="60"/>
+      <c r="B5" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="G5" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="67"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="E6" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="G6" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="H6" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="61" t="s">
+      <c r="I6" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="67" t="s">
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="69" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q6" s="69"/>
+      <c r="Q6" s="58"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="53" t="s">
-        <v>93</v>
+      <c r="C7" s="60" t="s">
+        <v>90</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="68"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="57"/>
       <c r="I7" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="L7" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="M7" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="N7" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="L7" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="M7" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="N7" s="65" t="s">
-        <v>107</v>
-      </c>
-      <c r="O7" s="66"/>
-      <c r="P7" s="65" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q7" s="66"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q7" s="55"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="53"/>
+      <c r="C8" s="60"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G8" s="15">
         <v>1</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J8" s="2">
         <v>10</v>
@@ -2466,36 +2447,36 @@
       <c r="M8" s="2">
         <v>5</v>
       </c>
-      <c r="N8" s="63" t="s">
-        <v>109</v>
-      </c>
-      <c r="O8" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="P8" s="63" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q8" s="64"/>
+      <c r="N8" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="O8" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q8" s="53"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>3</v>
       </c>
-      <c r="C9" s="53" t="s">
-        <v>95</v>
+      <c r="C9" s="60" t="s">
+        <v>92</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E9" s="4"/>
       <c r="G9" s="15">
         <v>2</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J9" s="2">
         <v>4</v>
@@ -2509,40 +2490,40 @@
       <c r="M9" s="2">
         <v>3</v>
       </c>
-      <c r="N9" s="63" t="s">
-        <v>153</v>
-      </c>
-      <c r="O9" s="64" t="s">
-        <v>46</v>
-      </c>
-      <c r="P9" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q9" s="64"/>
+      <c r="N9" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="O9" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="P9" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q9" s="53"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>4</v>
       </c>
-      <c r="C10" s="53"/>
+      <c r="C10" s="60"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G10" s="15">
         <v>3</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>117</v>
+        <v>160</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K10" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L10" s="2">
         <v>6</v>
@@ -2553,7 +2534,7 @@
       <c r="N10" s="44"/>
       <c r="O10" s="45"/>
       <c r="P10" s="44" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q10" s="45"/>
     </row>
@@ -2561,19 +2542,19 @@
       <c r="B11" s="4">
         <v>5</v>
       </c>
-      <c r="C11" s="53"/>
+      <c r="C11" s="60"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G11" s="15">
         <v>4</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J11" s="2">
         <v>50</v>
@@ -2588,11 +2569,11 @@
         <v>10</v>
       </c>
       <c r="N11" s="44" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O11" s="45"/>
       <c r="P11" s="44" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q11" s="45"/>
     </row>
@@ -2600,21 +2581,21 @@
       <c r="B12" s="4">
         <v>6</v>
       </c>
-      <c r="C12" s="53" t="s">
-        <v>98</v>
+      <c r="C12" s="60" t="s">
+        <v>95</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E12" s="4"/>
       <c r="G12" s="15">
         <v>5</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="J12" s="2">
         <v>100</v>
@@ -2629,11 +2610,11 @@
         <v>6</v>
       </c>
       <c r="N12" s="44" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O12" s="45"/>
       <c r="P12" s="44" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q12" s="45"/>
     </row>
@@ -2641,21 +2622,21 @@
       <c r="B13" s="4">
         <v>7</v>
       </c>
-      <c r="C13" s="53"/>
+      <c r="C13" s="60"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>8</v>
       </c>
-      <c r="C14" s="54" t="s">
-        <v>100</v>
+      <c r="C14" s="61" t="s">
+        <v>97</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E14" s="4"/>
     </row>
@@ -2663,20 +2644,29 @@
       <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="55"/>
+      <c r="C15" s="62"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F17" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:Q5"/>
+    <mergeCell ref="G6:G7"/>
     <mergeCell ref="P8:Q8"/>
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="N7:O7"/>
@@ -2686,15 +2676,6 @@
     <mergeCell ref="I6:O6"/>
     <mergeCell ref="N8:O8"/>
     <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:Q5"/>
-    <mergeCell ref="G6:G7"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2706,10 +2687,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:R30"/>
+  <dimension ref="B1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2729,140 +2710,134 @@
     <col min="15" max="15" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="23.33203125" customWidth="1"/>
-    <col min="18" max="18" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B1" s="49" t="s">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="51"/>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B3" s="123" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="58"/>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B5" s="78" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="50"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B3" s="81" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="65"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B5" s="75" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="3"/>
+      <c r="G5" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="67"/>
+    </row>
+    <row r="6" spans="2:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="3"/>
-      <c r="G5" s="60" t="s">
+      <c r="C6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="G6" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="60"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="60"/>
-    </row>
-    <row r="6" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
+      <c r="H6" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="G6" s="61" t="s">
+      <c r="I6" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="61" t="s">
+      <c r="J6" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="61" t="s">
+      <c r="K6" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="72"/>
+      <c r="Q6" s="123" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B7" s="61">
+        <v>1</v>
+      </c>
+      <c r="C7" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="M7" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="N7" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q7" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="J6" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" s="79" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="83"/>
-      <c r="M6" s="83"/>
-      <c r="N6" s="83"/>
-      <c r="O6" s="83"/>
-      <c r="P6" s="80"/>
-      <c r="Q6" s="79" t="s">
-        <v>31</v>
-      </c>
-      <c r="R6" s="80"/>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B7" s="54">
-        <v>1</v>
-      </c>
-      <c r="C7" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="L7" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="M7" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="N7" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="O7" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="P7" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q7" s="65" t="s">
-        <v>59</v>
-      </c>
-      <c r="R7" s="66"/>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="72"/>
-      <c r="C8" s="74"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B8" s="76"/>
+      <c r="C8" s="78"/>
       <c r="D8" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G8" s="15">
         <v>1</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>147</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="I8" s="13"/>
       <c r="J8" s="13"/>
       <c r="K8" s="26" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L8" s="26">
         <v>10</v>
@@ -2876,32 +2851,29 @@
       <c r="O8" s="26">
         <v>-1</v>
       </c>
-      <c r="P8" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q8" s="81" t="s">
-        <v>149</v>
-      </c>
-      <c r="R8" s="82"/>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="72"/>
-      <c r="C9" s="74"/>
+      <c r="P8" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B9" s="76"/>
+      <c r="C9" s="78"/>
       <c r="D9" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G9" s="125">
+        <v>116</v>
+      </c>
+      <c r="G9" s="46">
         <v>2</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>151</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="I9" s="13"/>
       <c r="J9" s="13"/>
       <c r="K9" s="25" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="L9" s="26">
         <v>4</v>
@@ -2915,35 +2887,32 @@
       <c r="O9" s="26">
         <v>3</v>
       </c>
-      <c r="P9" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q9" s="81" t="s">
-        <v>149</v>
-      </c>
-      <c r="R9" s="82"/>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B10" s="72"/>
-      <c r="C10" s="74"/>
+      <c r="P9" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B10" s="76"/>
+      <c r="C10" s="78"/>
       <c r="D10" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G10" s="15">
         <v>3</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>60</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="I10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>103</v>
+        <v>112</v>
+      </c>
+      <c r="L10" s="121" t="s">
+        <v>100</v>
       </c>
       <c r="M10" s="2">
         <v>5</v>
@@ -2954,30 +2923,27 @@
       <c r="O10" s="2">
         <v>10</v>
       </c>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="81" t="s">
-        <v>149</v>
-      </c>
-      <c r="R10" s="82"/>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B11" s="72"/>
-      <c r="C11" s="74"/>
+      <c r="P10" s="122"/>
+      <c r="Q10" s="14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B11" s="76"/>
+      <c r="C11" s="78"/>
       <c r="D11" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G11" s="15">
         <v>4</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>162</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="I11" s="13"/>
       <c r="J11" s="13"/>
       <c r="K11" s="25" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L11" s="2">
         <v>50</v>
@@ -2991,19 +2957,18 @@
       <c r="O11" s="2">
         <v>10</v>
       </c>
-      <c r="P11" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q11" s="81" t="s">
-        <v>43</v>
-      </c>
-      <c r="R11" s="82"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="72"/>
-      <c r="C12" s="74"/>
+      <c r="P11" s="122" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q11" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B12" s="76"/>
+      <c r="C12" s="78"/>
       <c r="D12" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G12" s="15">
         <v>5</v>
@@ -3011,12 +2976,10 @@
       <c r="H12" s="14">
         <v>14</v>
       </c>
-      <c r="I12" s="13" t="s">
-        <v>163</v>
-      </c>
+      <c r="I12" s="13"/>
       <c r="J12" s="13"/>
       <c r="K12" s="25" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="L12" s="2">
         <v>100</v>
@@ -3030,178 +2993,167 @@
       <c r="O12" s="2">
         <v>6</v>
       </c>
-      <c r="P12" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q12" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="R12" s="47"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="54">
+      <c r="P12" s="122" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q12" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B13" s="61">
         <v>2</v>
       </c>
-      <c r="C13" s="73" t="s">
+      <c r="C13" s="77" t="s">
+        <v>162</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B14" s="76"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D13" s="2" t="s">
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B15" s="76"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="34"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B16" s="76"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="35"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="76"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="62"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="61">
+        <v>3</v>
+      </c>
+      <c r="C19" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B14" s="72"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="2" t="s">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="76"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="72"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="2" t="s">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="76"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="77"/>
-      <c r="N15" s="34"/>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="72"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="2" t="s">
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="76"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="76"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="62"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="61">
+        <v>4</v>
+      </c>
+      <c r="C25" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="I16" s="76"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="76"/>
-      <c r="M16" s="76"/>
-      <c r="N16" s="35"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="72"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="55"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="2" t="s">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="76"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="54">
-        <v>3</v>
-      </c>
-      <c r="C19" s="73" t="s">
-        <v>140</v>
-      </c>
-      <c r="D19" s="2" t="s">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="76"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="72"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="72"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="2" t="s">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="76"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="72"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="72"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="55"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="54">
-        <v>4</v>
-      </c>
-      <c r="C25" s="73" t="s">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="76"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D25" s="2" t="s">
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="62"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="72"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="72"/>
-      <c r="C27" s="74"/>
-      <c r="D27" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="72"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="72"/>
-      <c r="C29" s="74"/>
-      <c r="D29" s="124" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="55"/>
-      <c r="C30" s="75"/>
-      <c r="D30" s="124" t="s">
-        <v>143</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="K6:P6"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:M15"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q9:R9"/>
+  <mergeCells count="20">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="I6:I7"/>
@@ -3215,9 +3167,13 @@
     <mergeCell ref="C19:C24"/>
     <mergeCell ref="B19:B24"/>
     <mergeCell ref="I16:M16"/>
-    <mergeCell ref="G5:R5"/>
+    <mergeCell ref="G5:Q5"/>
     <mergeCell ref="B3:G3"/>
-    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="K6:P6"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:M15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3232,7 +3188,7 @@
   </sheetPr>
   <dimension ref="B1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -3249,127 +3205,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="51"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="99" t="s">
+      <c r="B3" s="120" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="120"/>
+      <c r="M3" s="120"/>
+      <c r="N3" s="120"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="114" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="99"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="61" t="s">
+      <c r="E4" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="93" t="s">
+      <c r="F4" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="58"/>
+    </row>
+    <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="93"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="107" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="108"/>
+      <c r="M5" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="18" t="s">
         <v>67</v>
-      </c>
-      <c r="D4" s="104" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="67" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="69" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" s="69"/>
-    </row>
-    <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="103"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="86" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" s="87"/>
-      <c r="M5" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5" s="18" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16">
         <v>1</v>
       </c>
-      <c r="C6" s="101" t="s">
-        <v>71</v>
+      <c r="C6" s="91" t="s">
+        <v>68</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H6" s="21">
         <v>2010</v>
       </c>
       <c r="I6" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" s="109" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="K6" s="88" t="s">
+      <c r="M6" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="L6" s="89" t="s">
+      <c r="N6" s="16" t="s">
         <v>42</v>
-      </c>
-      <c r="M6" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="N6" s="16" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
@@ -3377,37 +3333,37 @@
         <f>B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="101"/>
+      <c r="C7" s="91"/>
       <c r="D7" s="23" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H7" s="8">
         <v>2010</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="K7" s="95" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" s="96"/>
+        <v>59</v>
+      </c>
+      <c r="K7" s="116" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="117"/>
       <c r="M7" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
@@ -3415,37 +3371,37 @@
         <f t="shared" ref="B8:B13" si="0">B7+1</f>
         <v>3</v>
       </c>
-      <c r="C8" s="101"/>
+      <c r="C8" s="91"/>
       <c r="D8" s="23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
@@ -3453,37 +3409,37 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="101"/>
+      <c r="C9" s="91"/>
       <c r="D9" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="K9" s="97" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9" s="98"/>
+        <v>42</v>
+      </c>
+      <c r="K9" s="118" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" s="119"/>
       <c r="M9" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
@@ -3491,37 +3447,37 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="101"/>
+      <c r="C10" s="91"/>
       <c r="D10" s="23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H10" s="10">
         <v>2010</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="K10" s="90" t="s">
-        <v>41</v>
-      </c>
-      <c r="L10" s="91"/>
+        <v>59</v>
+      </c>
+      <c r="K10" s="111" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="112"/>
       <c r="M10" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
@@ -3529,37 +3485,37 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C11" s="101"/>
+      <c r="C11" s="91"/>
       <c r="D11" s="23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H11" s="10">
         <v>2010</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="K11" s="90" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="111" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" s="112"/>
+      <c r="M11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="L11" s="91"/>
-      <c r="M11" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="N11" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
@@ -3567,37 +3523,37 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C12" s="101"/>
+      <c r="C12" s="91"/>
       <c r="D12" s="23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H12" s="10">
         <v>2010</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="K12" s="90" t="s">
+        <v>59</v>
+      </c>
+      <c r="K12" s="111" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" s="112"/>
+      <c r="M12" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="L12" s="91"/>
-      <c r="M12" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="N12" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3605,37 +3561,37 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C13" s="102"/>
+      <c r="C13" s="92"/>
       <c r="D13" s="24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="K13" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="L13" s="85"/>
+        <v>42</v>
+      </c>
+      <c r="K13" s="105" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" s="106"/>
       <c r="M13" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N13" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -3655,7 +3611,7 @@
     </row>
     <row r="15" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="20"/>
@@ -3665,102 +3621,102 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="100"/>
-      <c r="L15" s="100"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="90"/>
       <c r="M15" s="7"/>
     </row>
     <row r="16" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M16" s="7"/>
     </row>
     <row r="17" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="112" t="s">
+      <c r="C17" s="84" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" s="84" t="s">
+        <v>80</v>
+      </c>
+      <c r="I17" s="85"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="84" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="113"/>
-      <c r="E17" s="113"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="30" t="s">
+      <c r="N17" s="85"/>
+      <c r="O17" s="86"/>
+      <c r="P17" s="87"/>
+    </row>
+    <row r="18" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="98" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="99" t="s">
         <v>82</v>
       </c>
-      <c r="H17" s="112" t="s">
+      <c r="D18" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="I17" s="115"/>
-      <c r="J17" s="113"/>
-      <c r="K17" s="113"/>
-      <c r="L17" s="114"/>
-      <c r="M17" s="112" t="s">
+      <c r="E18" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="N17" s="115"/>
-      <c r="O17" s="113"/>
-      <c r="P17" s="114"/>
-    </row>
-    <row r="18" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="108" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="109" t="s">
+      <c r="F18" s="82" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="110" t="s">
+      <c r="G18" s="104" t="s">
         <v>86</v>
       </c>
-      <c r="E18" s="110" t="s">
+      <c r="H18" s="100" t="s">
         <v>87</v>
       </c>
-      <c r="F18" s="111" t="s">
-        <v>88</v>
-      </c>
-      <c r="G18" s="120" t="s">
-        <v>89</v>
-      </c>
-      <c r="H18" s="116" t="s">
-        <v>90</v>
-      </c>
-      <c r="I18" s="117"/>
-      <c r="J18" s="110" t="s">
-        <v>85</v>
-      </c>
-      <c r="K18" s="110" t="s">
-        <v>86</v>
-      </c>
-      <c r="L18" s="111" t="s">
+      <c r="I18" s="101"/>
+      <c r="J18" s="83" t="s">
+        <v>82</v>
+      </c>
+      <c r="K18" s="83" t="s">
+        <v>83</v>
+      </c>
+      <c r="L18" s="82" t="s">
+        <v>84</v>
+      </c>
+      <c r="M18" s="88" t="s">
         <v>87</v>
       </c>
-      <c r="M18" s="121" t="s">
-        <v>90</v>
-      </c>
-      <c r="N18" s="110" t="s">
-        <v>85</v>
-      </c>
-      <c r="O18" s="110" t="s">
-        <v>86</v>
-      </c>
-      <c r="P18" s="111" t="s">
-        <v>87</v>
+      <c r="N18" s="83" t="s">
+        <v>82</v>
+      </c>
+      <c r="O18" s="83" t="s">
+        <v>83</v>
+      </c>
+      <c r="P18" s="82" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="108"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="111"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="118"/>
-      <c r="I19" s="119"/>
-      <c r="J19" s="110"/>
-      <c r="K19" s="110"/>
-      <c r="L19" s="111"/>
-      <c r="M19" s="122"/>
-      <c r="N19" s="110"/>
-      <c r="O19" s="110"/>
-      <c r="P19" s="111"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="102"/>
+      <c r="I19" s="103"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="83"/>
+      <c r="L19" s="82"/>
+      <c r="M19" s="89"/>
+      <c r="N19" s="83"/>
+      <c r="O19" s="83"/>
+      <c r="P19" s="82"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" s="33" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C20" s="29">
         <v>8</v>
@@ -3773,10 +3729,10 @@
       </c>
       <c r="F20" s="32"/>
       <c r="G20" s="37"/>
-      <c r="H20" s="106" t="s">
-        <v>91</v>
-      </c>
-      <c r="I20" s="107"/>
+      <c r="H20" s="96" t="s">
+        <v>88</v>
+      </c>
+      <c r="I20" s="97"/>
       <c r="J20" s="2">
         <v>3</v>
       </c>
@@ -3787,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="36" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N20" s="2">
         <v>5</v>
@@ -3804,12 +3760,20 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="B3:N3"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="C6:C13"/>
     <mergeCell ref="B4:B5"/>
@@ -3826,20 +3790,12 @@
     <mergeCell ref="H18:I19"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="K18:K19"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3848,6 +3804,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010058284A30843C9F43BD758DDD8294D484" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6d50638930d08c51b5585735b2be047e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fed1744a-f275-4023-9290-77fd546fd730" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4acb07121b76573bb3c966f3dcb1b903" ns2:_="">
     <xsd:import namespace="fed1744a-f275-4023-9290-77fd546fd730"/>
@@ -3991,22 +3962,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF0EB622-FDCF-4321-9FF5-C0B282D1670E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BC1EB47-4FFF-47F3-894F-DED91590EA19}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33EFF49E-866D-4BFD-B7FD-9BB436667B53}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4022,21 +3995,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BC1EB47-4FFF-47F3-894F-DED91590EA19}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF0EB622-FDCF-4321-9FF5-C0B282D1670E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>